--- a/source/guides/hrsa/uds-plus/ValueSet-uds-plus-service-delivery-codes.xlsx
+++ b/source/guides/hrsa/uds-plus/ValueSet-uds-plus-service-delivery-codes.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -100,28 +100,31 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>public-housing</t>
+  </si>
+  <si>
+    <t>Care was delivered in a Location that is considered public housing</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Care was delivered in a Location that is considered a school</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>public-housing</t>
-  </si>
-  <si>
-    <t>Care was delivered in a Location that is considered public housing</t>
   </si>
   <si>
     <t>http://fhir.org/guides/hrsa/uds-plus/CodeSystem/udsplus-service-delivery-codes</t>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,22 +414,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -434,7 +421,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +433,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -454,26 +441,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
